--- a/9/1/1/1/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/1/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8570,6 +8573,62 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="139" spans="1:18">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139">
+        <v>8.5</v>
+      </c>
+      <c r="C139">
+        <v>5.4</v>
+      </c>
+      <c r="D139">
+        <v>6.4</v>
+      </c>
+      <c r="E139">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F139">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G139">
+        <v>8.9</v>
+      </c>
+      <c r="H139">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I139">
+        <v>8.5</v>
+      </c>
+      <c r="J139">
+        <v>7.3</v>
+      </c>
+      <c r="K139">
+        <v>8.1</v>
+      </c>
+      <c r="L139">
+        <v>10.1</v>
+      </c>
+      <c r="M139">
+        <v>7.5</v>
+      </c>
+      <c r="N139">
+        <v>9.1</v>
+      </c>
+      <c r="O139">
+        <v>3.4</v>
+      </c>
+      <c r="P139">
+        <v>3.7</v>
+      </c>
+      <c r="Q139">
+        <v>5.7</v>
+      </c>
+      <c r="R139">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/1/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/1/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Serie</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8629,6 +8632,62 @@
         <v>9.199999999999999</v>
       </c>
     </row>
+    <row r="140" spans="1:18">
+      <c r="A140" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140">
+        <v>8.4</v>
+      </c>
+      <c r="C140">
+        <v>4.9</v>
+      </c>
+      <c r="D140">
+        <v>6.9</v>
+      </c>
+      <c r="E140">
+        <v>9.6</v>
+      </c>
+      <c r="F140">
+        <v>8.4</v>
+      </c>
+      <c r="G140">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H140">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I140">
+        <v>7.6</v>
+      </c>
+      <c r="J140">
+        <v>7.2</v>
+      </c>
+      <c r="K140">
+        <v>8.4</v>
+      </c>
+      <c r="L140">
+        <v>8.6</v>
+      </c>
+      <c r="M140">
+        <v>7.1</v>
+      </c>
+      <c r="N140">
+        <v>8.6</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140">
+        <v>3.4</v>
+      </c>
+      <c r="Q140">
+        <v>5.8</v>
+      </c>
+      <c r="R140">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
